--- a/output/Datos_Filtrados.xlsx
+++ b/output/Datos_Filtrados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intellego365-my.sharepoint.com/personal/luis_rincong_axity_com/Documents/Documentos/Proyectos/CORFICOLOMBIANA/Automatizaciones/ITSM/Corrección/Proyecto/Automatizacion_ITSM/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2BB1D69C5BA059C10C090ED04BDB50F553CFD3EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2BB1D69C5BA059C10C090ED04BDB50F553CFD3EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FADDF0B8-5934-4EF8-A857-5308CAABCE67}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>MS-71425</t>
   </si>
   <si>
-    <t>James Andres Urquiza</t>
-  </si>
-  <si>
     <t>Estefania Roncancio Parra</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
     <t xml:space="preserve">Sistema admón. de listas, AS400, SAP y aplicativos que aplique. Se requiere la depuración de las causales tipo y subtipo de acuerdo con la siguiente relación, así como los registros que contiene cada una de ellas. Así mismo, se requiere que dichos registros tengan un archivo respaldo o backup, antes de ser depurados, de tal manera que puedan ser consultados posteriormente. Una vez realizado este proceso se debe informar a la Unidad de Cumplimiento, cuantos registros fueron depurados por tipo y subtipo de causal, indicando la ruta donde queda la carpeta para su posterior consulta.
 Justificación: Esta solicitud se requiere en atención con lo acordado en la reunión del pasado 21 de junio de 2024 “Depuración Listas Cautelares”, entre los Oficiales de Cumplimiento de Corfi, Fiduciaria y Casa de Bolsa y las mesas de trabajo con la participación de Gerencia Corporativa y el Gerente Experto SARLAFT.
 </t>
+  </si>
+  <si>
+    <t>Luis Carlos Rincon Gordo</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -267,7 +267,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,16 +642,16 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>45625.647192430559</v>
@@ -660,39 +660,39 @@
         <v>45625.67848771991</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2">
         <v>45625.653707453697</v>
       </c>
       <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="2">
         <v>45595.698744074078</v>
@@ -701,22 +701,22 @@
         <v>45625.581740393522</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2">
         <v>45595.704537511578</v>
       </c>
       <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>36</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -724,19 +724,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>45587.455665243047</v>
@@ -745,28 +745,28 @@
         <v>45625.492454722233</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2">
         <v>45587.459425636567</v>
       </c>
       <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>45</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>46</v>
-      </c>
-      <c r="R4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -774,19 +774,19 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
       </c>
       <c r="G5" s="2">
         <v>45575.624897986112</v>
@@ -795,51 +795,51 @@
         <v>45625.501243923609</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2">
         <v>45575.641604699071</v>
       </c>
       <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
         <v>42</v>
       </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
       <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" t="s">
-        <v>54</v>
-      </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>45495.587524710652</v>
@@ -848,19 +848,19 @@
         <v>45625.511558784718</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2">
         <v>45495.592585324077</v>
       </c>
       <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
         <v>57</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>58</v>
-      </c>
-      <c r="P6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
